--- a/results/170929-Z34-1710-2017_24a_Coppa_Città_di_Milano-Open_Pairs.xlsx
+++ b/results/170929-Z34-1710-2017_24a_Coppa_Città_di_Milano-Open_Pairs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7543FC-974E-4326-89D9-38A983DF0206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E8CBAD-277F-47BF-817D-55E451949FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,9 +243,6 @@
     <t>Place:</t>
   </si>
   <si>
-    <t>29.09.17 - 01.10.17</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Raroni, Giulio</t>
+  </si>
+  <si>
+    <t>29.09.2017 - 01.10.2017</t>
   </si>
 </sst>
 </file>
@@ -1603,6 +1603,246 @@
     <xf numFmtId="2" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1615,18 +1855,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1649,234 +1877,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -2210,7 +2210,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B30" sqref="B30"/>
-      <selection pane="topRight" activeCell="F76" sqref="F76"/>
+      <selection pane="topRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2240,7 +2240,7 @@
     <row r="1" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="111"/>
       <c r="D2" s="111"/>
@@ -2249,19 +2249,19 @@
       <c r="G2" s="111"/>
       <c r="H2" s="111"/>
       <c r="I2" s="111"/>
-      <c r="J2" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
+      <c r="J2" s="176" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="106"/>
       <c r="D3" s="106"/>
@@ -2270,21 +2270,21 @@
       <c r="G3" s="106"/>
       <c r="H3" s="106"/>
       <c r="I3" s="106"/>
-      <c r="J3" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="121"/>
+      <c r="J3" s="164" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="166"/>
       <c r="R3" s="75"/>
       <c r="S3" s="110"/>
     </row>
     <row r="4" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="108"/>
       <c r="D4" s="108"/>
@@ -2293,15 +2293,15 @@
       <c r="G4" s="108"/>
       <c r="H4" s="108"/>
       <c r="I4" s="108"/>
-      <c r="J4" s="122" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="124"/>
+      <c r="J4" s="179" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="181"/>
     </row>
     <row r="5" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
@@ -2314,15 +2314,15 @@
       <c r="G5" s="106"/>
       <c r="H5" s="106"/>
       <c r="I5" s="106"/>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="121"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="166"/>
     </row>
     <row r="6" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="109" t="s">
@@ -2335,15 +2335,15 @@
       <c r="G6" s="108"/>
       <c r="H6" s="108"/>
       <c r="I6" s="108"/>
-      <c r="J6" s="125">
+      <c r="J6" s="182">
         <v>38</v>
       </c>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="127"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="184"/>
     </row>
     <row r="7" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
@@ -2356,15 +2356,15 @@
       <c r="G7" s="106"/>
       <c r="H7" s="106"/>
       <c r="I7" s="106"/>
-      <c r="J7" s="128">
+      <c r="J7" s="173">
         <v>1</v>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="130"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="175"/>
     </row>
     <row r="8" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="109" t="s">
@@ -2377,15 +2377,15 @@
       <c r="G8" s="108"/>
       <c r="H8" s="108"/>
       <c r="I8" s="108"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132" t="s">
+      <c r="J8" s="160"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="133"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="167"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="107" t="s">
@@ -2398,13 +2398,13 @@
       <c r="G9" s="106"/>
       <c r="H9" s="106"/>
       <c r="I9" s="106"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="121"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="166"/>
     </row>
     <row r="10" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="109" t="s">
@@ -2417,13 +2417,13 @@
       <c r="G10" s="108"/>
       <c r="H10" s="108"/>
       <c r="I10" s="108"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="135"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="163"/>
     </row>
     <row r="11" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="107" t="s">
@@ -2436,15 +2436,15 @@
       <c r="G11" s="106"/>
       <c r="H11" s="106"/>
       <c r="I11" s="106"/>
-      <c r="J11" s="119">
+      <c r="J11" s="164">
         <v>1710</v>
       </c>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="121"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="166"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="105" t="s">
@@ -2457,32 +2457,32 @@
       <c r="G12" s="104"/>
       <c r="H12" s="104"/>
       <c r="I12" s="104"/>
-      <c r="J12" s="131">
+      <c r="J12" s="160">
         <v>1910</v>
       </c>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="167"/>
     </row>
     <row r="13" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="136"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="140"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="172"/>
     </row>
     <row r="14" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q14" s="3"/>
@@ -2509,9 +2509,9 @@
       <c r="N15" s="61"/>
       <c r="O15" s="60"/>
       <c r="P15" s="60"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="143"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="128"/>
       <c r="U15" s="59">
         <v>1</v>
       </c>
@@ -2558,11 +2558,11 @@
       <c r="P16" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="144" t="s">
+      <c r="R16" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="S16" s="145"/>
-      <c r="T16" s="146"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="122"/>
       <c r="U16" s="18"/>
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2598,7 +2598,7 @@
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="147">
+      <c r="B18" s="123">
         <v>1</v>
       </c>
       <c r="C18" s="44">
@@ -2638,7 +2638,7 @@
       <c r="O18" s="35">
         <v>158.5</v>
       </c>
-      <c r="P18" s="150" t="s">
+      <c r="P18" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q18" s="1"/>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="148"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="31">
         <v>1</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="O19" s="22">
         <v>158.5</v>
       </c>
-      <c r="P19" s="150"/>
+      <c r="P19" s="119"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="97" t="s">
         <v>53</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="149"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="17">
         <v>1</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="O20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P20" s="150"/>
+      <c r="P20" s="119"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="45" t="s">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="21" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="147">
+      <c r="B21" s="123">
         <v>2</v>
       </c>
       <c r="C21" s="44">
@@ -2799,7 +2799,7 @@
       <c r="O21" s="35">
         <v>132.5</v>
       </c>
-      <c r="P21" s="150" t="s">
+      <c r="P21" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q21" s="1"/>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="22" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="148"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="31">
         <v>2</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="O22" s="22">
         <v>132.5</v>
       </c>
-      <c r="P22" s="150"/>
+      <c r="P22" s="119"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="45" t="s">
         <v>51</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="149"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="17">
         <v>2</v>
       </c>
@@ -2905,7 +2905,7 @@
       <c r="O23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P23" s="150"/>
+      <c r="P23" s="119"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="97" t="s">
         <v>0</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="151">
+      <c r="B24" s="116">
         <v>3</v>
       </c>
       <c r="C24" s="44">
@@ -2960,7 +2960,7 @@
       <c r="O24" s="35">
         <v>109.5</v>
       </c>
-      <c r="P24" s="150" t="s">
+      <c r="P24" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q24" s="1"/>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="152"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="31">
         <v>3</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="O25" s="22">
         <v>109.5</v>
       </c>
-      <c r="P25" s="150"/>
+      <c r="P25" s="119"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="97" t="s">
         <v>57</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="26" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="153"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="17">
         <v>3</v>
       </c>
@@ -3066,7 +3066,7 @@
       <c r="O26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P26" s="150"/>
+      <c r="P26" s="119"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="45" t="s">
         <v>0</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="27" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="151">
+      <c r="B27" s="116">
         <v>4</v>
       </c>
       <c r="C27" s="44">
@@ -3121,7 +3121,7 @@
       <c r="O27" s="35">
         <v>94.5</v>
       </c>
-      <c r="P27" s="150" t="s">
+      <c r="P27" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q27" s="1"/>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="28" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="152"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="31">
         <v>4</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="O28" s="22">
         <v>94.5</v>
       </c>
-      <c r="P28" s="150"/>
+      <c r="P28" s="119"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="45" t="s">
         <v>55</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="29" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="153"/>
+      <c r="B29" s="118"/>
       <c r="C29" s="17">
         <v>4</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="O29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P29" s="150"/>
+      <c r="P29" s="119"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="97" t="s">
         <v>0</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="30" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="151">
+      <c r="B30" s="116">
         <v>5</v>
       </c>
       <c r="C30" s="44">
@@ -3282,7 +3282,7 @@
       <c r="O30" s="35">
         <v>78</v>
       </c>
-      <c r="P30" s="150" t="s">
+      <c r="P30" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q30" s="1"/>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="31" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="152"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="31">
         <v>5</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="O31" s="22">
         <v>78</v>
       </c>
-      <c r="P31" s="150"/>
+      <c r="P31" s="119"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="97" t="s">
         <v>35</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="32" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="153"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="17">
         <v>5</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="O32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="150"/>
+      <c r="P32" s="119"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="45" t="s">
         <v>0</v>
@@ -3402,7 +3402,7 @@
       <c r="U32" s="18"/>
     </row>
     <row r="33" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="151">
+      <c r="B33" s="116">
         <v>6</v>
       </c>
       <c r="C33" s="44">
@@ -3442,7 +3442,7 @@
       <c r="O33" s="35">
         <v>65</v>
       </c>
-      <c r="P33" s="150" t="s">
+      <c r="P33" s="119" t="s">
         <v>1</v>
       </c>
       <c r="R33" s="97" t="s">
@@ -3458,7 +3458,7 @@
       <c r="V33" s="98"/>
     </row>
     <row r="34" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="152"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="31">
         <v>6</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="O34" s="22">
         <v>65</v>
       </c>
-      <c r="P34" s="150"/>
+      <c r="P34" s="119"/>
       <c r="R34" s="45" t="s">
         <v>31</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="U34" s="18"/>
     </row>
     <row r="35" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="153"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="17">
         <v>6</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="O35" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P35" s="150"/>
+      <c r="P35" s="119"/>
       <c r="R35" s="97" t="s">
         <v>0</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="U35" s="18"/>
     </row>
     <row r="36" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="151">
+      <c r="B36" s="116">
         <v>7</v>
       </c>
       <c r="C36" s="44">
@@ -3598,7 +3598,7 @@
       <c r="O36" s="35">
         <v>59</v>
       </c>
-      <c r="P36" s="150" t="s">
+      <c r="P36" s="119" t="s">
         <v>1</v>
       </c>
       <c r="R36" s="45" t="s">
@@ -3613,7 +3613,7 @@
       <c r="U36" s="18"/>
     </row>
     <row r="37" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="152"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="31">
         <v>7</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="O37" s="22">
         <v>59</v>
       </c>
-      <c r="P37" s="150"/>
+      <c r="P37" s="119"/>
       <c r="R37" s="97" t="s">
         <v>29</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="U37" s="18"/>
     </row>
     <row r="38" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="153"/>
+      <c r="B38" s="118"/>
       <c r="C38" s="17">
         <v>7</v>
       </c>
@@ -3700,7 +3700,7 @@
       <c r="O38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P38" s="150"/>
+      <c r="P38" s="119"/>
       <c r="R38" s="45" t="s">
         <v>0</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="U38" s="18"/>
     </row>
     <row r="39" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="151">
+      <c r="B39" s="116">
         <v>8</v>
       </c>
       <c r="C39" s="44">
@@ -3753,7 +3753,7 @@
       <c r="O39" s="35">
         <v>48</v>
       </c>
-      <c r="P39" s="150" t="s">
+      <c r="P39" s="119" t="s">
         <v>1</v>
       </c>
       <c r="R39" s="97" t="s">
@@ -3768,7 +3768,7 @@
       <c r="U39" s="18"/>
     </row>
     <row r="40" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="152"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="31">
         <v>8</v>
       </c>
@@ -3806,7 +3806,7 @@
       <c r="O40" s="22">
         <v>48</v>
       </c>
-      <c r="P40" s="150"/>
+      <c r="P40" s="119"/>
       <c r="R40" s="45" t="s">
         <v>37</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="U40" s="18"/>
     </row>
     <row r="41" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="153"/>
+      <c r="B41" s="118"/>
       <c r="C41" s="17">
         <v>8</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="O41" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P41" s="150"/>
+      <c r="P41" s="119"/>
       <c r="R41" s="97" t="s">
         <v>0</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="U41" s="18"/>
     </row>
     <row r="42" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="151">
+      <c r="B42" s="116">
         <v>9</v>
       </c>
       <c r="C42" s="44">
@@ -3908,7 +3908,7 @@
       <c r="O42" s="35">
         <v>47.5</v>
       </c>
-      <c r="P42" s="150" t="s">
+      <c r="P42" s="119" t="s">
         <v>1</v>
       </c>
       <c r="R42" s="45" t="s">
@@ -3923,7 +3923,7 @@
       <c r="U42" s="18"/>
     </row>
     <row r="43" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="152"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="31">
         <v>9</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="O43" s="22">
         <v>47.5</v>
       </c>
-      <c r="P43" s="150"/>
+      <c r="P43" s="119"/>
       <c r="R43" s="97" t="s">
         <v>49</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="U43" s="18"/>
     </row>
     <row r="44" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="153"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="17">
         <v>9</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="O44" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P44" s="150"/>
+      <c r="P44" s="119"/>
       <c r="R44" s="45" t="s">
         <v>0</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="U44" s="18"/>
     </row>
     <row r="45" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="151">
+      <c r="B45" s="116">
         <v>10</v>
       </c>
       <c r="C45" s="44">
@@ -4063,7 +4063,7 @@
       <c r="O45" s="35">
         <v>34</v>
       </c>
-      <c r="P45" s="150" t="s">
+      <c r="P45" s="119" t="s">
         <v>1</v>
       </c>
       <c r="R45" s="97" t="s">
@@ -4078,7 +4078,7 @@
       <c r="U45" s="18"/>
     </row>
     <row r="46" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="152"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="31">
         <v>10</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="O46" s="22">
         <v>34</v>
       </c>
-      <c r="P46" s="150"/>
+      <c r="P46" s="119"/>
       <c r="R46" s="45" t="s">
         <v>33</v>
       </c>
@@ -4129,7 +4129,7 @@
       <c r="U46" s="18"/>
     </row>
     <row r="47" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="153"/>
+      <c r="B47" s="118"/>
       <c r="C47" s="17">
         <v>10</v>
       </c>
@@ -4165,7 +4165,7 @@
       <c r="O47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P47" s="150"/>
+      <c r="P47" s="119"/>
       <c r="R47" s="97" t="s">
         <v>0</v>
       </c>
@@ -4226,145 +4226,145 @@
       <c r="O49" s="60"/>
       <c r="P49" s="60"/>
       <c r="Q49" s="53"/>
-      <c r="R49" s="141"/>
-      <c r="S49" s="142"/>
-      <c r="T49" s="154"/>
+      <c r="R49" s="126"/>
+      <c r="S49" s="127"/>
+      <c r="T49" s="159"/>
       <c r="U49" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:22" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="155" t="s">
+      <c r="B50" s="141" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
-      <c r="E50" s="158" t="s">
+      <c r="E50" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="161" t="s">
+      <c r="F50" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="164" t="s">
+      <c r="G50" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="164" t="s">
+      <c r="H50" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="I50" s="184" t="s">
+      <c r="I50" s="138" t="s">
         <v>9</v>
       </c>
       <c r="J50" s="89"/>
-      <c r="K50" s="155" t="s">
+      <c r="K50" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="L50" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="164" t="s">
+      <c r="L50" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="N50" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="O50" s="169" t="s">
+      <c r="N50" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="P50" s="172" t="s">
+      <c r="P50" s="148" t="s">
         <v>6</v>
       </c>
       <c r="Q50" s="53"/>
-      <c r="R50" s="175" t="s">
+      <c r="R50" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="S50" s="176"/>
-      <c r="T50" s="177"/>
+      <c r="S50" s="130"/>
+      <c r="T50" s="131"/>
       <c r="U50" s="18"/>
     </row>
     <row r="51" spans="1:22" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="156"/>
+      <c r="B51" s="142"/>
       <c r="C51" s="95"/>
       <c r="D51" s="95"/>
-      <c r="E51" s="159"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="170"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="139"/>
       <c r="J51" s="89"/>
-      <c r="K51" s="156"/>
-      <c r="L51" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="167" t="s">
+      <c r="K51" s="142"/>
+      <c r="L51" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="N51" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" s="170"/>
-      <c r="P51" s="173"/>
+      <c r="N51" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="139"/>
+      <c r="P51" s="149"/>
       <c r="Q51" s="53"/>
-      <c r="R51" s="178"/>
-      <c r="S51" s="179"/>
-      <c r="T51" s="180"/>
+      <c r="R51" s="132"/>
+      <c r="S51" s="133"/>
+      <c r="T51" s="134"/>
       <c r="U51" s="18"/>
     </row>
     <row r="52" spans="1:22" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="156"/>
+      <c r="B52" s="142"/>
       <c r="C52" s="95"/>
       <c r="D52" s="95"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="162"/>
-      <c r="G52" s="165"/>
-      <c r="H52" s="162"/>
-      <c r="I52" s="170"/>
+      <c r="E52" s="152"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="157"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="139"/>
       <c r="J52" s="89"/>
-      <c r="K52" s="156"/>
-      <c r="L52" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" s="167" t="s">
+      <c r="K52" s="142"/>
+      <c r="L52" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" s="170"/>
-      <c r="P52" s="173"/>
+      <c r="N52" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="139"/>
+      <c r="P52" s="149"/>
       <c r="Q52" s="53"/>
-      <c r="R52" s="178"/>
-      <c r="S52" s="179"/>
-      <c r="T52" s="180"/>
+      <c r="R52" s="132"/>
+      <c r="S52" s="133"/>
+      <c r="T52" s="134"/>
       <c r="U52" s="18"/>
     </row>
     <row r="53" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="157"/>
+      <c r="B53" s="143"/>
       <c r="C53" s="94"/>
       <c r="D53" s="94"/>
-      <c r="E53" s="160"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="166"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="171"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="140"/>
       <c r="J53" s="51"/>
-      <c r="K53" s="157"/>
-      <c r="L53" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="168" t="s">
+      <c r="K53" s="143"/>
+      <c r="L53" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="O53" s="171"/>
-      <c r="P53" s="174"/>
-      <c r="R53" s="181"/>
-      <c r="S53" s="182"/>
-      <c r="T53" s="183"/>
+      <c r="N53" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="140"/>
+      <c r="P53" s="150"/>
+      <c r="R53" s="135"/>
+      <c r="S53" s="136"/>
+      <c r="T53" s="137"/>
       <c r="U53" s="18"/>
     </row>
     <row r="54" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4397,7 +4397,7 @@
       <c r="U54" s="18"/>
     </row>
     <row r="55" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="147">
+      <c r="B55" s="123">
         <v>1</v>
       </c>
       <c r="C55" s="44">
@@ -4437,7 +4437,7 @@
       <c r="O55" s="35">
         <v>0</v>
       </c>
-      <c r="P55" s="150" t="s">
+      <c r="P55" s="119" t="s">
         <v>1</v>
       </c>
       <c r="R55" s="45" t="s">
@@ -4452,7 +4452,7 @@
       <c r="U55" s="18"/>
     </row>
     <row r="56" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="148"/>
+      <c r="B56" s="124"/>
       <c r="C56" s="31">
         <v>1</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="O56" s="22">
         <v>0</v>
       </c>
-      <c r="P56" s="150"/>
+      <c r="P56" s="119"/>
       <c r="R56" s="34" t="s">
         <v>0</v>
       </c>
@@ -4503,7 +4503,7 @@
       <c r="U56" s="18"/>
     </row>
     <row r="57" spans="1:22" s="53" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="149"/>
+      <c r="B57" s="125"/>
       <c r="C57" s="17">
         <v>1</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="O57" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P57" s="150"/>
+      <c r="P57" s="119"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="21" t="s">
         <v>0</v>
@@ -4554,7 +4554,7 @@
       <c r="V57" s="2"/>
     </row>
     <row r="58" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="147">
+      <c r="B58" s="123">
         <v>2</v>
       </c>
       <c r="C58" s="44">
@@ -4594,7 +4594,7 @@
       <c r="O58" s="35">
         <v>0</v>
       </c>
-      <c r="P58" s="150" t="s">
+      <c r="P58" s="119" t="s">
         <v>1</v>
       </c>
       <c r="R58" s="34" t="s">
@@ -4609,7 +4609,7 @@
       <c r="U58" s="18"/>
     </row>
     <row r="59" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="148"/>
+      <c r="B59" s="124"/>
       <c r="C59" s="31">
         <v>2</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="O59" s="22">
         <v>0</v>
       </c>
-      <c r="P59" s="150"/>
+      <c r="P59" s="119"/>
       <c r="R59" s="21" t="s">
         <v>0</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="U59" s="18"/>
     </row>
     <row r="60" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="149"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="17">
         <v>2</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="O60" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P60" s="150"/>
+      <c r="P60" s="119"/>
       <c r="R60" s="34" t="s">
         <v>0</v>
       </c>
@@ -4709,7 +4709,7 @@
       <c r="U60" s="18"/>
     </row>
     <row r="61" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="151">
+      <c r="B61" s="116">
         <v>3</v>
       </c>
       <c r="C61" s="44">
@@ -4749,7 +4749,7 @@
       <c r="O61" s="35">
         <v>0</v>
       </c>
-      <c r="P61" s="150" t="s">
+      <c r="P61" s="119" t="s">
         <v>1</v>
       </c>
       <c r="R61" s="21" t="s">
@@ -4764,7 +4764,7 @@
       <c r="U61" s="18"/>
     </row>
     <row r="62" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="152"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="31">
         <v>3</v>
       </c>
@@ -4802,7 +4802,7 @@
       <c r="O62" s="22">
         <v>0</v>
       </c>
-      <c r="P62" s="150"/>
+      <c r="P62" s="119"/>
       <c r="R62" s="34" t="s">
         <v>0</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="U62" s="18"/>
     </row>
     <row r="63" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="153"/>
+      <c r="B63" s="118"/>
       <c r="C63" s="17">
         <v>3</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="O63" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P63" s="150"/>
+      <c r="P63" s="119"/>
       <c r="R63" s="21" t="s">
         <v>0</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="U63" s="18"/>
     </row>
     <row r="64" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="151">
+      <c r="B64" s="116">
         <v>4</v>
       </c>
       <c r="C64" s="44">
@@ -4904,7 +4904,7 @@
       <c r="O64" s="35">
         <v>0</v>
       </c>
-      <c r="P64" s="150" t="s">
+      <c r="P64" s="119" t="s">
         <v>1</v>
       </c>
       <c r="R64" s="34" t="s">
@@ -4919,7 +4919,7 @@
       <c r="U64" s="18"/>
     </row>
     <row r="65" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="152"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="31">
         <v>4</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="O65" s="22">
         <v>0</v>
       </c>
-      <c r="P65" s="150"/>
+      <c r="P65" s="119"/>
       <c r="R65" s="21" t="s">
         <v>0</v>
       </c>
@@ -4970,7 +4970,7 @@
       <c r="U65" s="18"/>
     </row>
     <row r="66" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="153"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="17">
         <v>4</v>
       </c>
@@ -5006,7 +5006,7 @@
       <c r="O66" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P66" s="150"/>
+      <c r="P66" s="119"/>
       <c r="R66" s="34" t="s">
         <v>0</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="U66" s="18"/>
     </row>
     <row r="67" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="151">
+      <c r="B67" s="116">
         <v>5</v>
       </c>
       <c r="C67" s="44">
@@ -5059,7 +5059,7 @@
       <c r="O67" s="35">
         <v>0</v>
       </c>
-      <c r="P67" s="150" t="s">
+      <c r="P67" s="119" t="s">
         <v>1</v>
       </c>
       <c r="R67" s="21" t="s">
@@ -5074,7 +5074,7 @@
       <c r="U67" s="18"/>
     </row>
     <row r="68" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="152"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="31">
         <v>5</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="O68" s="22">
         <v>0</v>
       </c>
-      <c r="P68" s="150"/>
+      <c r="P68" s="119"/>
       <c r="R68" s="34" t="s">
         <v>0</v>
       </c>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="69" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="153"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="17">
         <v>5</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="O69" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P69" s="150"/>
+      <c r="P69" s="119"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="21" t="s">
         <v>0</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="70" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="151">
+      <c r="B70" s="116">
         <v>6</v>
       </c>
       <c r="C70" s="44">
@@ -5217,7 +5217,7 @@
       <c r="O70" s="35">
         <v>32</v>
       </c>
-      <c r="P70" s="150" t="s">
+      <c r="P70" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q70" s="1"/>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="71" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="152"/>
+      <c r="B71" s="117"/>
       <c r="C71" s="31">
         <v>6</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="O71" s="22">
         <v>32</v>
       </c>
-      <c r="P71" s="150"/>
+      <c r="P71" s="119"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="21" t="s">
         <v>47</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="72" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="153"/>
+      <c r="B72" s="118"/>
       <c r="C72" s="17">
         <v>6</v>
       </c>
@@ -5323,7 +5323,7 @@
       <c r="O72" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P72" s="150"/>
+      <c r="P72" s="119"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="34" t="s">
         <v>0</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="73" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="151">
+      <c r="B73" s="116">
         <v>7</v>
       </c>
       <c r="C73" s="44">
@@ -5378,7 +5378,7 @@
       <c r="O73" s="35">
         <v>21.5</v>
       </c>
-      <c r="P73" s="150" t="s">
+      <c r="P73" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q73" s="1"/>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="74" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="152"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="31">
         <v>7</v>
       </c>
@@ -5433,7 +5433,7 @@
       <c r="O74" s="22">
         <v>21.5</v>
       </c>
-      <c r="P74" s="150"/>
+      <c r="P74" s="119"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="34" t="s">
         <v>45</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="75" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="153"/>
+      <c r="B75" s="118"/>
       <c r="C75" s="17">
         <v>7</v>
       </c>
@@ -5484,7 +5484,7 @@
       <c r="O75" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P75" s="150"/>
+      <c r="P75" s="119"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="21" t="s">
         <v>0</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="76" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="151">
+      <c r="B76" s="116">
         <v>8</v>
       </c>
       <c r="C76" s="44">
@@ -5512,7 +5512,7 @@
         <v>1017</v>
       </c>
       <c r="F76" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G76" s="42" t="s">
         <v>18</v>
@@ -5539,7 +5539,7 @@
       <c r="O76" s="35">
         <v>17</v>
       </c>
-      <c r="P76" s="150" t="s">
+      <c r="P76" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q76" s="1"/>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="77" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="152"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="31">
         <v>8</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="O77" s="22">
         <v>17</v>
       </c>
-      <c r="P77" s="150"/>
+      <c r="P77" s="119"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="21" t="s">
         <v>43</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="78" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="153"/>
+      <c r="B78" s="118"/>
       <c r="C78" s="17">
         <v>8</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="O78" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P78" s="150"/>
+      <c r="P78" s="119"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="34" t="s">
         <v>0</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="79" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="151">
+      <c r="B79" s="116">
         <v>9</v>
       </c>
       <c r="C79" s="44">
@@ -5700,7 +5700,7 @@
       <c r="O79" s="35">
         <v>12.5</v>
       </c>
-      <c r="P79" s="150" t="s">
+      <c r="P79" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q79" s="1"/>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="80" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="152"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="31">
         <v>9</v>
       </c>
@@ -5755,7 +5755,7 @@
       <c r="O80" s="22">
         <v>12.5</v>
       </c>
-      <c r="P80" s="150"/>
+      <c r="P80" s="119"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="34" t="s">
         <v>41</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="81" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="153"/>
+      <c r="B81" s="118"/>
       <c r="C81" s="17">
         <v>9</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="O81" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P81" s="150"/>
+      <c r="P81" s="119"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="21" t="s">
         <v>0</v>
@@ -5867,9 +5867,9 @@
       <c r="O83" s="60"/>
       <c r="P83" s="60"/>
       <c r="Q83" s="53"/>
-      <c r="R83" s="141"/>
-      <c r="S83" s="142"/>
-      <c r="T83" s="143"/>
+      <c r="R83" s="126"/>
+      <c r="S83" s="127"/>
+      <c r="T83" s="128"/>
       <c r="U83" s="59">
         <v>3</v>
       </c>
@@ -5915,11 +5915,11 @@
       <c r="P84" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="R84" s="144" t="s">
+      <c r="R84" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="S84" s="145"/>
-      <c r="T84" s="146"/>
+      <c r="S84" s="121"/>
+      <c r="T84" s="122"/>
       <c r="U84" s="18"/>
     </row>
     <row r="85" spans="1:21" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5954,7 +5954,7 @@
     </row>
     <row r="86" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="77"/>
-      <c r="B86" s="147">
+      <c r="B86" s="123">
         <v>1</v>
       </c>
       <c r="C86" s="44">
@@ -5994,7 +5994,7 @@
       <c r="O86" s="35">
         <v>0</v>
       </c>
-      <c r="P86" s="150" t="s">
+      <c r="P86" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q86" s="1"/>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="87" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="77"/>
-      <c r="B87" s="148"/>
+      <c r="B87" s="124"/>
       <c r="C87" s="31">
         <v>1</v>
       </c>
@@ -6049,7 +6049,7 @@
       <c r="O87" s="22">
         <v>0</v>
       </c>
-      <c r="P87" s="150"/>
+      <c r="P87" s="119"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="34" t="s">
         <v>0</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="88" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="77"/>
-      <c r="B88" s="149"/>
+      <c r="B88" s="125"/>
       <c r="C88" s="17">
         <v>1</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="O88" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P88" s="150"/>
+      <c r="P88" s="119"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="21" t="s">
         <v>0</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="89" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="77"/>
-      <c r="B89" s="147">
+      <c r="B89" s="123">
         <v>2</v>
       </c>
       <c r="C89" s="44">
@@ -6155,7 +6155,7 @@
       <c r="O89" s="35">
         <v>0</v>
       </c>
-      <c r="P89" s="150" t="s">
+      <c r="P89" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q89" s="1"/>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="90" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="77"/>
-      <c r="B90" s="148"/>
+      <c r="B90" s="124"/>
       <c r="C90" s="31">
         <v>2</v>
       </c>
@@ -6210,7 +6210,7 @@
       <c r="O90" s="22">
         <v>0</v>
       </c>
-      <c r="P90" s="150"/>
+      <c r="P90" s="119"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="21" t="s">
         <v>0</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="91" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="77"/>
-      <c r="B91" s="149"/>
+      <c r="B91" s="125"/>
       <c r="C91" s="17">
         <v>2</v>
       </c>
@@ -6261,7 +6261,7 @@
       <c r="O91" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P91" s="150"/>
+      <c r="P91" s="119"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="34" t="s">
         <v>0</v>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="92" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="77"/>
-      <c r="B92" s="151">
+      <c r="B92" s="116">
         <v>3</v>
       </c>
       <c r="C92" s="44">
@@ -6316,7 +6316,7 @@
       <c r="O92" s="35">
         <v>0</v>
       </c>
-      <c r="P92" s="150" t="s">
+      <c r="P92" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q92" s="1"/>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="93" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="77"/>
-      <c r="B93" s="152"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="31">
         <v>3</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="O93" s="22">
         <v>0</v>
       </c>
-      <c r="P93" s="150"/>
+      <c r="P93" s="119"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="34" t="s">
         <v>0</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="94" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="77"/>
-      <c r="B94" s="153"/>
+      <c r="B94" s="118"/>
       <c r="C94" s="17">
         <v>3</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="O94" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P94" s="150"/>
+      <c r="P94" s="119"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="21" t="s">
         <v>0</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="95" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="77"/>
-      <c r="B95" s="151">
+      <c r="B95" s="116">
         <v>4</v>
       </c>
       <c r="C95" s="44">
@@ -6477,7 +6477,7 @@
       <c r="O95" s="35">
         <v>0</v>
       </c>
-      <c r="P95" s="150" t="s">
+      <c r="P95" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q95" s="1"/>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="96" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="77"/>
-      <c r="B96" s="152"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="31">
         <v>4</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="O96" s="22">
         <v>0</v>
       </c>
-      <c r="P96" s="150"/>
+      <c r="P96" s="119"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="21" t="s">
         <v>0</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="97" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="77"/>
-      <c r="B97" s="153"/>
+      <c r="B97" s="118"/>
       <c r="C97" s="17">
         <v>4</v>
       </c>
@@ -6583,7 +6583,7 @@
       <c r="O97" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P97" s="150"/>
+      <c r="P97" s="119"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="34" t="s">
         <v>0</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="98" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="77"/>
-      <c r="B98" s="151">
+      <c r="B98" s="116">
         <v>5</v>
       </c>
       <c r="C98" s="44">
@@ -6638,7 +6638,7 @@
       <c r="O98" s="35">
         <v>0</v>
       </c>
-      <c r="P98" s="150" t="s">
+      <c r="P98" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q98" s="1"/>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="99" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="77"/>
-      <c r="B99" s="152"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="31">
         <v>5</v>
       </c>
@@ -6693,7 +6693,7 @@
       <c r="O99" s="22">
         <v>0</v>
       </c>
-      <c r="P99" s="150"/>
+      <c r="P99" s="119"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="34" t="s">
         <v>0</v>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="100" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="77"/>
-      <c r="B100" s="153"/>
+      <c r="B100" s="118"/>
       <c r="C100" s="17">
         <v>5</v>
       </c>
@@ -6744,7 +6744,7 @@
       <c r="O100" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P100" s="150"/>
+      <c r="P100" s="119"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="21" t="s">
         <v>0</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="101" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="77"/>
-      <c r="B101" s="151">
+      <c r="B101" s="116">
         <v>6</v>
       </c>
       <c r="C101" s="44">
@@ -6799,7 +6799,7 @@
       <c r="O101" s="35">
         <v>26.5</v>
       </c>
-      <c r="P101" s="150" t="s">
+      <c r="P101" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q101" s="1"/>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="102" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="77"/>
-      <c r="B102" s="152"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="31">
         <v>6</v>
       </c>
@@ -6854,7 +6854,7 @@
       <c r="O102" s="22">
         <v>26.5</v>
       </c>
-      <c r="P102" s="150"/>
+      <c r="P102" s="119"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="21" t="s">
         <v>27</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="103" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="77"/>
-      <c r="B103" s="153"/>
+      <c r="B103" s="118"/>
       <c r="C103" s="17">
         <v>6</v>
       </c>
@@ -6905,7 +6905,7 @@
       <c r="O103" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P103" s="150"/>
+      <c r="P103" s="119"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="34" t="s">
         <v>0</v>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="104" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="77"/>
-      <c r="B104" s="151">
+      <c r="B104" s="116">
         <v>7</v>
       </c>
       <c r="C104" s="44">
@@ -6960,7 +6960,7 @@
       <c r="O104" s="35">
         <v>19</v>
       </c>
-      <c r="P104" s="150" t="s">
+      <c r="P104" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q104" s="1"/>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="105" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="77"/>
-      <c r="B105" s="152"/>
+      <c r="B105" s="117"/>
       <c r="C105" s="31">
         <v>7</v>
       </c>
@@ -7015,7 +7015,7 @@
       <c r="O105" s="22">
         <v>19</v>
       </c>
-      <c r="P105" s="150"/>
+      <c r="P105" s="119"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="34" t="s">
         <v>25</v>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="106" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="77"/>
-      <c r="B106" s="153"/>
+      <c r="B106" s="118"/>
       <c r="C106" s="17">
         <v>7</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="O106" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P106" s="150"/>
+      <c r="P106" s="119"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="21" t="s">
         <v>0</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="107" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="77"/>
-      <c r="B107" s="151">
+      <c r="B107" s="116">
         <v>8</v>
       </c>
       <c r="C107" s="44">
@@ -7121,7 +7121,7 @@
       <c r="O107" s="35">
         <v>15</v>
       </c>
-      <c r="P107" s="150" t="s">
+      <c r="P107" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q107" s="1"/>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="108" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="77"/>
-      <c r="B108" s="152"/>
+      <c r="B108" s="117"/>
       <c r="C108" s="31">
         <v>8</v>
       </c>
@@ -7176,7 +7176,7 @@
       <c r="O108" s="22">
         <v>15</v>
       </c>
-      <c r="P108" s="150"/>
+      <c r="P108" s="119"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="21" t="s">
         <v>23</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="109" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="77"/>
-      <c r="B109" s="153"/>
+      <c r="B109" s="118"/>
       <c r="C109" s="17">
         <v>8</v>
       </c>
@@ -7227,7 +7227,7 @@
       <c r="O109" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P109" s="150"/>
+      <c r="P109" s="119"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="34" t="s">
         <v>0</v>
@@ -7242,7 +7242,7 @@
     </row>
     <row r="110" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="77"/>
-      <c r="B110" s="151">
+      <c r="B110" s="116">
         <v>9</v>
       </c>
       <c r="C110" s="44">
@@ -7282,7 +7282,7 @@
       <c r="O110" s="35">
         <v>12.5</v>
       </c>
-      <c r="P110" s="150" t="s">
+      <c r="P110" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q110" s="1"/>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="111" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="77"/>
-      <c r="B111" s="152"/>
+      <c r="B111" s="117"/>
       <c r="C111" s="31">
         <v>9</v>
       </c>
@@ -7337,7 +7337,7 @@
       <c r="O111" s="22">
         <v>12.5</v>
       </c>
-      <c r="P111" s="150"/>
+      <c r="P111" s="119"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="34" t="s">
         <v>20</v>
@@ -7352,7 +7352,7 @@
     </row>
     <row r="112" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="77"/>
-      <c r="B112" s="153"/>
+      <c r="B112" s="118"/>
       <c r="C112" s="17">
         <v>9</v>
       </c>
@@ -7388,7 +7388,7 @@
       <c r="O112" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P112" s="150"/>
+      <c r="P112" s="119"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="21" t="s">
         <v>0</v>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="113" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="77"/>
-      <c r="B113" s="151">
+      <c r="B113" s="116">
         <v>10</v>
       </c>
       <c r="C113" s="44">
@@ -7443,7 +7443,7 @@
       <c r="O113" s="35">
         <v>11</v>
       </c>
-      <c r="P113" s="150" t="s">
+      <c r="P113" s="119" t="s">
         <v>1</v>
       </c>
       <c r="Q113" s="1"/>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="114" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="77"/>
-      <c r="B114" s="152"/>
+      <c r="B114" s="117"/>
       <c r="C114" s="31">
         <v>10</v>
       </c>
@@ -7498,7 +7498,7 @@
       <c r="O114" s="22">
         <v>11</v>
       </c>
-      <c r="P114" s="150"/>
+      <c r="P114" s="119"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="21" t="s">
         <v>17</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="115" spans="1:21" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="77"/>
-      <c r="B115" s="153"/>
+      <c r="B115" s="118"/>
       <c r="C115" s="17">
         <v>10</v>
       </c>
@@ -7549,7 +7549,7 @@
       <c r="O115" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P115" s="150"/>
+      <c r="P115" s="119"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="34" t="s">
         <v>0</v>
@@ -7565,44 +7565,45 @@
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1"/>
   <mergeCells count="92">
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="P110:P112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="P113:P115"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="P101:P103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="P104:P106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="P107:P109"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="P92:P94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="P95:P97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="P98:P100"/>
-    <mergeCell ref="R84:T84"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="P86:P88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="P89:P91"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="P79:P81"/>
-    <mergeCell ref="R83:T83"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="P67:P69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="P70:P72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="P73:P75"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="P58:P60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="P61:P63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="P64:P66"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="P45:P47"/>
+    <mergeCell ref="R49:T49"/>
     <mergeCell ref="R50:T53"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="P55:P57"/>
@@ -7618,45 +7619,44 @@
     <mergeCell ref="F50:F53"/>
     <mergeCell ref="G50:G53"/>
     <mergeCell ref="H50:H53"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="P42:P44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="P45:P47"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="P33:P35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="P36:P38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="P58:P60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="P61:P63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="P64:P66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="P67:P69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="P70:P72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="P73:P75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="P79:P81"/>
+    <mergeCell ref="R83:T83"/>
+    <mergeCell ref="R84:T84"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="P86:P88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="P89:P91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="P92:P94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="P95:P97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="P98:P100"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="P110:P112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="P113:P115"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="P101:P103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="P104:P106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="P107:P109"/>
   </mergeCells>
   <conditionalFormatting sqref="P18:P47">
     <cfRule type="cellIs" dxfId="5" priority="46" operator="equal">
